--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Downloads\distribution-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\distribution-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46230D56-8672-43D2-B5FE-2A790B7ACFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F965EA8-34B9-45C9-AAFE-E398942837A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C145BD69-38AA-4959-8891-4DC422C07279}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C145BD69-38AA-4959-8891-4DC422C07279}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,19 +522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A5467-50AF-4C14-89CA-2FDDF365AF7F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -670,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -687,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -721,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -755,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -772,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -789,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -806,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -840,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -857,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -891,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -925,12 +927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>3.1894100000000002E-3</v>
+        <v>4.41275E-3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
@@ -942,12 +944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>2.05375E-2</v>
+        <v>2.113079E-2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\distribution-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Downloads\distribution-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F965EA8-34B9-45C9-AAFE-E398942837A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E27A2-9EB7-403D-B436-1F2AF34BAA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C145BD69-38AA-4959-8891-4DC422C07279}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C145BD69-38AA-4959-8891-4DC422C07279}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,21 +522,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A5467-50AF-4C14-89CA-2FDDF365AF7F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,12 +568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -587,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,12 +602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -621,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -672,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -689,12 +687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -706,12 +704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -723,12 +721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -740,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -757,12 +755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -774,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -791,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -808,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -842,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -859,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -927,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -944,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -961,12 +959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>42</v>
@@ -980,5 +978,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>